--- a/Aggregated/cg.xlsx
+++ b/Aggregated/cg.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>it</t>
+    <t>seed</t>
   </si>
   <si>
     <t>I</t>
@@ -28,16 +28,31 @@
     <t>S</t>
   </si>
   <si>
-    <t>objective_value</t>
+    <t>objective_value_cp</t>
   </si>
   <si>
-    <t>time</t>
+    <t>objective_value_cg</t>
+  </si>
+  <si>
+    <t>time_cg</t>
+  </si>
+  <si>
+    <t>time_cp</t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
+  <si>
+    <t>mip_gap</t>
+  </si>
+  <si>
+    <t>lowerbound</t>
+  </si>
+  <si>
+    <t>optimal</t>
   </si>
   <si>
     <t>lagrange</t>
-  </si>
-  <si>
-    <t>lp-bound</t>
   </si>
 </sst>
 </file>
@@ -395,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +441,23 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -441,19 +471,34 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>14.6</v>
       </c>
       <c r="F2">
-        <v>0.09199881553649902</v>
+        <v>14.6</v>
       </c>
       <c r="G2">
-        <v>31.5</v>
+        <v>3.17</v>
       </c>
       <c r="H2">
-        <v>40.00000000017944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>109.48</v>
+      </c>
+      <c r="I2">
+        <v>1.722469403928131</v>
+      </c>
+      <c r="J2">
+        <v>-0</v>
+      </c>
+      <c r="K2">
+        <v>14.59999999999998</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>14.353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -467,19 +512,34 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>27.22</v>
+        <v>14.3</v>
       </c>
       <c r="F3">
-        <v>0.1720013618469238</v>
+        <v>14.3</v>
       </c>
       <c r="G3">
-        <v>20.522</v>
+        <v>2.72</v>
       </c>
       <c r="H3">
-        <v>27.22222224166574</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>119.59</v>
+      </c>
+      <c r="I3">
+        <v>1.067728308002784</v>
+      </c>
+      <c r="J3">
+        <v>-0</v>
+      </c>
+      <c r="K3">
+        <v>14.29999999999999</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>14.149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -493,19 +553,34 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>19.42</v>
+        <v>10.4</v>
       </c>
       <c r="F4">
-        <v>0.1210014820098877</v>
+        <v>10.4</v>
       </c>
       <c r="G4">
-        <v>15.348</v>
+        <v>1.32</v>
       </c>
       <c r="H4">
-        <v>19.42222227190944</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>6.07</v>
+      </c>
+      <c r="I4">
+        <v>0.6776379470002823</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>10.39999999999999</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>10.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -519,19 +594,34 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>15.52</v>
+        <v>15.8</v>
       </c>
       <c r="F5">
-        <v>0.133997917175293</v>
+        <v>15.8</v>
       </c>
       <c r="G5">
-        <v>12.791</v>
+        <v>2.82</v>
       </c>
       <c r="H5">
-        <v>15.52222224101841</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>52.53</v>
+      </c>
+      <c r="I5">
+        <v>1.256737097010823</v>
+      </c>
+      <c r="J5">
+        <v>-0</v>
+      </c>
+      <c r="K5">
+        <v>15.8</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>15.604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -545,19 +635,34 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>14.4</v>
+        <v>13.2</v>
       </c>
       <c r="F6">
-        <v>0.3435332775115967</v>
+        <v>13.2</v>
       </c>
       <c r="G6">
-        <v>12.581</v>
+        <v>1.9</v>
       </c>
       <c r="H6">
-        <v>14.40000002402239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>17.68</v>
+      </c>
+      <c r="I6">
+        <v>-2.349366492589145E-10</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>13.2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -571,19 +676,34 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>12.8</v>
+        <v>13.8</v>
       </c>
       <c r="F7">
-        <v>0.2569289207458496</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>12.085</v>
+        <v>6.12</v>
       </c>
       <c r="H7">
-        <v>12.80000000000061</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>63.71</v>
+      </c>
+      <c r="I7">
+        <v>3.794499799936435</v>
+      </c>
+      <c r="J7">
+        <v>1.449</v>
+      </c>
+      <c r="K7">
+        <v>13.8</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>13.488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
@@ -597,19 +717,34 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>12.8</v>
+        <v>10.8</v>
       </c>
       <c r="F8">
-        <v>0.3219566345214844</v>
+        <v>10.8</v>
       </c>
       <c r="G8">
-        <v>12.529</v>
+        <v>3.58</v>
       </c>
       <c r="H8">
-        <v>12.80000000770696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>44.35</v>
+      </c>
+      <c r="I8">
+        <v>3.257790326438812</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>10.8</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
@@ -623,19 +758,34 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="F9">
-        <v>0.225968599319458</v>
+        <v>12.6</v>
       </c>
       <c r="G9">
-        <v>12.377</v>
+        <v>4.37</v>
       </c>
       <c r="H9">
-        <v>12.80000000030453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>256.71</v>
+      </c>
+      <c r="I9">
+        <v>0.6389776357814488</v>
+      </c>
+      <c r="J9">
+        <v>-0</v>
+      </c>
+      <c r="K9">
+        <v>12.6</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
@@ -649,19 +799,34 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="F10">
-        <v>0.3139996528625488</v>
+        <v>12.3</v>
       </c>
       <c r="G10">
-        <v>12.657</v>
+        <v>2.3</v>
       </c>
       <c r="H10">
-        <v>12.80000001694852</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>7.89</v>
+      </c>
+      <c r="I10">
+        <v>-2.214871465949155E-09</v>
+      </c>
+      <c r="J10">
+        <v>-0</v>
+      </c>
+      <c r="K10">
+        <v>12.3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
@@ -675,42 +840,3721 @@
         <v>3</v>
       </c>
       <c r="E11">
+        <v>12.7</v>
+      </c>
+      <c r="F11">
+        <v>12.7</v>
+      </c>
+      <c r="G11">
+        <v>2.53</v>
+      </c>
+      <c r="H11">
+        <v>13.4</v>
+      </c>
+      <c r="I11">
+        <v>-4.012888009635649E-11</v>
+      </c>
+      <c r="J11">
+        <v>-0</v>
+      </c>
+      <c r="K11">
+        <v>12.7</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>4.79</v>
+      </c>
+      <c r="H12">
+        <v>17.1</v>
+      </c>
+      <c r="I12">
+        <v>1.413402343588069</v>
+      </c>
+      <c r="J12">
+        <v>-0</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>9.861000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G13">
+        <v>2.66</v>
+      </c>
+      <c r="H13">
+        <v>8.02</v>
+      </c>
+      <c r="I13">
+        <v>-5.300037868393005E-07</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>2.83</v>
+      </c>
+      <c r="H14">
+        <v>18.32</v>
+      </c>
+      <c r="I14">
+        <v>-8.061927194201071E-13</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>10.9</v>
+      </c>
+      <c r="F15">
+        <v>10.9</v>
+      </c>
+      <c r="G15">
+        <v>2.42</v>
+      </c>
+      <c r="H15">
+        <v>4.97</v>
+      </c>
+      <c r="I15">
+        <v>0.4608293328319356</v>
+      </c>
+      <c r="J15">
+        <v>-0</v>
+      </c>
+      <c r="K15">
+        <v>10.9</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>14.5</v>
+      </c>
+      <c r="F16">
+        <v>14.5</v>
+      </c>
+      <c r="G16">
+        <v>1.88</v>
+      </c>
+      <c r="H16">
+        <v>21.58</v>
+      </c>
+      <c r="I16">
+        <v>0.4618937644274771</v>
+      </c>
+      <c r="J16">
+        <v>-0</v>
+      </c>
+      <c r="K16">
+        <v>14.5</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>9.6</v>
+      </c>
+      <c r="F17">
+        <v>9.6</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>13.62</v>
+      </c>
+      <c r="I17">
+        <v>0.03473428268853498</v>
+      </c>
+      <c r="J17">
+        <v>-0</v>
+      </c>
+      <c r="K17">
+        <v>9.599999999999998</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>14.5</v>
+      </c>
+      <c r="F18">
+        <v>14.5</v>
+      </c>
+      <c r="G18">
+        <v>1.89</v>
+      </c>
+      <c r="H18">
+        <v>34.28</v>
+      </c>
+      <c r="I18">
+        <v>1.851851851848739</v>
+      </c>
+      <c r="J18">
+        <v>-0</v>
+      </c>
+      <c r="K18">
+        <v>14.49999999999999</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>14.236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>1.9</v>
+      </c>
+      <c r="H19">
+        <v>5.31</v>
+      </c>
+      <c r="I19">
+        <v>-4.16680359589691E-07</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>10.3</v>
+      </c>
+      <c r="F20">
+        <v>10.4</v>
+      </c>
+      <c r="G20">
+        <v>3.67</v>
+      </c>
+      <c r="H20">
+        <v>34.55</v>
+      </c>
+      <c r="I20">
+        <v>2.399650092475572</v>
+      </c>
+      <c r="J20">
+        <v>0.971</v>
+      </c>
+      <c r="K20">
+        <v>10.3</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>10.156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>9.9</v>
+      </c>
+      <c r="F21">
+        <v>10.4</v>
+      </c>
+      <c r="G21">
+        <v>3.71</v>
+      </c>
+      <c r="H21">
+        <v>37</v>
+      </c>
+      <c r="I21">
+        <v>9.376933270865869</v>
+      </c>
+      <c r="J21">
+        <v>5.051</v>
+      </c>
+      <c r="K21">
+        <v>9.9</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>9.507999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>13.3</v>
+      </c>
+      <c r="G22">
+        <v>3.72</v>
+      </c>
+      <c r="H22">
+        <v>76.61</v>
+      </c>
+      <c r="I22">
+        <v>3.834804033888752</v>
+      </c>
+      <c r="J22">
+        <v>2.308</v>
+      </c>
+      <c r="K22">
+        <v>13</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>12.809</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>13.8</v>
+      </c>
+      <c r="F23">
+        <v>13.8</v>
+      </c>
+      <c r="G23">
+        <v>1.47</v>
+      </c>
+      <c r="H23">
+        <v>3.95</v>
+      </c>
+      <c r="I23">
+        <v>-9.875514254974828E-11</v>
+      </c>
+      <c r="J23">
+        <v>-0</v>
+      </c>
+      <c r="K23">
+        <v>13.8</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>10.9</v>
+      </c>
+      <c r="F24">
+        <v>10.9</v>
+      </c>
+      <c r="G24">
+        <v>6.55</v>
+      </c>
+      <c r="H24">
+        <v>149.05</v>
+      </c>
+      <c r="I24">
+        <v>3.256896840416537</v>
+      </c>
+      <c r="J24">
+        <v>-0</v>
+      </c>
+      <c r="K24">
+        <v>10.9</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>10.556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>2.27</v>
+      </c>
+      <c r="H25">
+        <v>8.66</v>
+      </c>
+      <c r="I25">
+        <v>-1.53926412333278E-08</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>15</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F26">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G26">
+        <v>1.59</v>
+      </c>
+      <c r="H26">
+        <v>8.73</v>
+      </c>
+      <c r="I26">
+        <v>1.44927535888728</v>
+      </c>
+      <c r="J26">
+        <v>-0</v>
+      </c>
+      <c r="K26">
+        <v>9.799999999999999</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>16</v>
+      </c>
+      <c r="G27">
+        <v>1.93</v>
+      </c>
+      <c r="H27">
+        <v>5.02</v>
+      </c>
+      <c r="I27">
+        <v>0.187852222667874</v>
+      </c>
+      <c r="J27">
+        <v>-0</v>
+      </c>
+      <c r="K27">
+        <v>15.99999999999999</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>9.5</v>
+      </c>
+      <c r="F28">
+        <v>9.5</v>
+      </c>
+      <c r="G28">
+        <v>1.68</v>
+      </c>
+      <c r="H28">
+        <v>4.77</v>
+      </c>
+      <c r="I28">
+        <v>1.303317535545556</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>9.5</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>9.378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>7.5</v>
+      </c>
+      <c r="F29">
+        <v>7.5</v>
+      </c>
+      <c r="G29">
+        <v>3.13</v>
+      </c>
+      <c r="H29">
+        <v>6.16</v>
+      </c>
+      <c r="I29">
+        <v>0.01396336639531313</v>
+      </c>
+      <c r="J29">
+        <v>-0</v>
+      </c>
+      <c r="K29">
+        <v>7.499999999999999</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>7.499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>11.4</v>
+      </c>
+      <c r="F30">
+        <v>11.7</v>
+      </c>
+      <c r="G30">
+        <v>3.76</v>
+      </c>
+      <c r="H30">
+        <v>28.71</v>
+      </c>
+      <c r="I30">
+        <v>4.154302670610843</v>
+      </c>
+      <c r="J30">
+        <v>2.632</v>
+      </c>
+      <c r="K30">
+        <v>11.4</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>11.233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>14.6</v>
+      </c>
+      <c r="F31">
+        <v>14.6</v>
+      </c>
+      <c r="G31">
+        <v>3.71</v>
+      </c>
+      <c r="H31">
+        <v>23.88</v>
+      </c>
+      <c r="I31">
+        <v>0.2678387413959533</v>
+      </c>
+      <c r="J31">
+        <v>-0</v>
+      </c>
+      <c r="K31">
+        <v>14.6</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>14.561</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>14</v>
+      </c>
+      <c r="G32">
+        <v>2.4</v>
+      </c>
+      <c r="H32">
+        <v>36.77</v>
+      </c>
+      <c r="I32">
+        <v>0.4727072874900172</v>
+      </c>
+      <c r="J32">
+        <v>-0</v>
+      </c>
+      <c r="K32">
+        <v>14</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>13.934</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>11.2</v>
+      </c>
+      <c r="F33">
+        <v>11.7</v>
+      </c>
+      <c r="G33">
+        <v>2.57</v>
+      </c>
+      <c r="H33">
+        <v>14.11</v>
+      </c>
+      <c r="I33">
+        <v>5.985239239207735</v>
+      </c>
+      <c r="J33">
+        <v>4.464</v>
+      </c>
+      <c r="K33">
+        <v>11.2</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>11.039</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>11.6</v>
+      </c>
+      <c r="F34">
+        <v>11.6</v>
+      </c>
+      <c r="G34">
+        <v>2.72</v>
+      </c>
+      <c r="H34">
+        <v>10.23</v>
+      </c>
+      <c r="I34">
+        <v>0.08628127663488505</v>
+      </c>
+      <c r="J34">
+        <v>-0</v>
+      </c>
+      <c r="K34">
+        <v>11.6</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>11.59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>13.8</v>
+      </c>
+      <c r="F35">
+        <v>13.8</v>
+      </c>
+      <c r="G35">
+        <v>2.36</v>
+      </c>
+      <c r="H35">
+        <v>43.66</v>
+      </c>
+      <c r="I35">
+        <v>-2.132948889518995E-08</v>
+      </c>
+      <c r="J35">
+        <v>-0</v>
+      </c>
+      <c r="K35">
+        <v>13.8</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>14.1</v>
+      </c>
+      <c r="F36">
+        <v>14.1</v>
+      </c>
+      <c r="G36">
+        <v>2.06</v>
+      </c>
+      <c r="H36">
+        <v>15.07</v>
+      </c>
+      <c r="I36">
+        <v>0.9546539366628652</v>
+      </c>
+      <c r="J36">
+        <v>-0</v>
+      </c>
+      <c r="K36">
+        <v>14.1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>13.967</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>11.8</v>
+      </c>
+      <c r="F37">
+        <v>11.8</v>
+      </c>
+      <c r="G37">
+        <v>2.58</v>
+      </c>
+      <c r="H37">
+        <v>20.89</v>
+      </c>
+      <c r="I37">
+        <v>0.2548853015394771</v>
+      </c>
+      <c r="J37">
+        <v>-0</v>
+      </c>
+      <c r="K37">
+        <v>11.8</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>15.1</v>
+      </c>
+      <c r="F38">
+        <v>15.1</v>
+      </c>
+      <c r="G38">
+        <v>2.27</v>
+      </c>
+      <c r="H38">
+        <v>66.73999999999999</v>
+      </c>
+      <c r="I38">
+        <v>0.8010680891297217</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>15.1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>7.8</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>6.17</v>
+      </c>
+      <c r="H39">
+        <v>27.36</v>
+      </c>
+      <c r="I39">
+        <v>5.563550330383019</v>
+      </c>
+      <c r="J39">
+        <v>2.564</v>
+      </c>
+      <c r="K39">
+        <v>7.799999999999997</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>7.578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>11.3</v>
+      </c>
+      <c r="F40">
+        <v>11.4</v>
+      </c>
+      <c r="G40">
+        <v>2.81</v>
+      </c>
+      <c r="H40">
+        <v>27.09</v>
+      </c>
+      <c r="I40">
+        <v>1.475755445650491</v>
+      </c>
+      <c r="J40">
+        <v>0.885</v>
+      </c>
+      <c r="K40">
+        <v>11.3</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>11.234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>13.8</v>
+      </c>
+      <c r="F41">
+        <v>13.8</v>
+      </c>
+      <c r="G41">
+        <v>1.16</v>
+      </c>
+      <c r="H41">
+        <v>5.56</v>
+      </c>
+      <c r="I41">
+        <v>-1.874664542466617E-07</v>
+      </c>
+      <c r="J41">
+        <v>-0</v>
+      </c>
+      <c r="K41">
+        <v>13.8</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>14.7</v>
+      </c>
+      <c r="F42">
+        <v>14.7</v>
+      </c>
+      <c r="G42">
+        <v>3.08</v>
+      </c>
+      <c r="H42">
+        <v>34.33</v>
+      </c>
+      <c r="I42">
+        <v>0.8414890637763538</v>
+      </c>
+      <c r="J42">
+        <v>-0</v>
+      </c>
+      <c r="K42">
+        <v>14.7</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>14.577</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>13.4</v>
+      </c>
+      <c r="F43">
+        <v>13.4</v>
+      </c>
+      <c r="G43">
+        <v>1.91</v>
+      </c>
+      <c r="H43">
+        <v>7.43</v>
+      </c>
+      <c r="I43">
+        <v>-3.847452371799118E-08</v>
+      </c>
+      <c r="J43">
+        <v>-0</v>
+      </c>
+      <c r="K43">
+        <v>13.4</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>14</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>12.1</v>
+      </c>
+      <c r="F44">
+        <v>12.1</v>
+      </c>
+      <c r="G44">
+        <v>7.95</v>
+      </c>
+      <c r="H44">
+        <v>24.59</v>
+      </c>
+      <c r="I44">
+        <v>1.140969954359614</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>12.09999999999999</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>11.963</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <v>14</v>
+      </c>
+      <c r="G45">
+        <v>3.7</v>
+      </c>
+      <c r="H45">
+        <v>21.35</v>
+      </c>
+      <c r="I45">
+        <v>0.3374035874296975</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>14</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>13.953</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F46">
+        <v>9.4</v>
+      </c>
+      <c r="G46">
+        <v>2.61</v>
+      </c>
+      <c r="H46">
+        <v>16.2</v>
+      </c>
+      <c r="I46">
+        <v>3.424637806202866</v>
+      </c>
+      <c r="J46">
+        <v>1.075</v>
+      </c>
+      <c r="K46">
+        <v>9.299999999999999</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>9.089</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>11.3</v>
+      </c>
+      <c r="F47">
+        <v>11.7</v>
+      </c>
+      <c r="G47">
+        <v>2.59</v>
+      </c>
+      <c r="H47">
+        <v>18.07</v>
+      </c>
+      <c r="I47">
+        <v>4.996559930254585</v>
+      </c>
+      <c r="J47">
+        <v>3.54</v>
+      </c>
+      <c r="K47">
+        <v>11.3</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>11.143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>10.8</v>
+      </c>
+      <c r="F48">
+        <v>10.9</v>
+      </c>
+      <c r="G48">
+        <v>3.86</v>
+      </c>
+      <c r="H48">
+        <v>24.88</v>
+      </c>
+      <c r="I48">
+        <v>2.716186252698929</v>
+      </c>
+      <c r="J48">
+        <v>0.926</v>
+      </c>
+      <c r="K48">
+        <v>10.8</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>10.612</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>11.9</v>
+      </c>
+      <c r="F49">
+        <v>11.9</v>
+      </c>
+      <c r="G49">
+        <v>2.91</v>
+      </c>
+      <c r="H49">
+        <v>55.55</v>
+      </c>
+      <c r="I49">
+        <v>1.368373356270486</v>
+      </c>
+      <c r="J49">
+        <v>-0</v>
+      </c>
+      <c r="K49">
+        <v>11.9</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>11.739</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>14</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F50">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="G50">
+        <v>4.23</v>
+      </c>
+      <c r="H50">
+        <v>8.56</v>
+      </c>
+      <c r="I50">
+        <v>-1.701864455812208E-11</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>14</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>11</v>
+      </c>
+      <c r="F51">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <v>2.46</v>
+      </c>
+      <c r="H51">
+        <v>18.05</v>
+      </c>
+      <c r="I51">
+        <v>0.4612546123729722</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>11</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>10.949</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>2.11</v>
+      </c>
+      <c r="H52">
+        <v>4.48</v>
+      </c>
+      <c r="I52">
+        <v>-1.195003691960154E-12</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>11</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>14</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>12.4</v>
+      </c>
+      <c r="F53">
+        <v>12.4</v>
+      </c>
+      <c r="G53">
+        <v>1.88</v>
+      </c>
+      <c r="H53">
+        <v>16.31</v>
+      </c>
+      <c r="I53">
+        <v>0.995475113198575</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>12.4</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>12.278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>14</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>10.9</v>
+      </c>
+      <c r="F54">
+        <v>10.9</v>
+      </c>
+      <c r="G54">
+        <v>2.84</v>
+      </c>
+      <c r="H54">
+        <v>6.77</v>
+      </c>
+      <c r="I54">
+        <v>1.798106136718296</v>
+      </c>
+      <c r="J54">
+        <v>-0</v>
+      </c>
+      <c r="K54">
+        <v>10.9</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>10.707</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>14</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>11.9</v>
+      </c>
+      <c r="F55">
+        <v>11.9</v>
+      </c>
+      <c r="G55">
+        <v>3.68</v>
+      </c>
+      <c r="H55">
+        <v>15.88</v>
+      </c>
+      <c r="I55">
+        <v>0.62463863551582</v>
+      </c>
+      <c r="J55">
+        <v>-0</v>
+      </c>
+      <c r="K55">
+        <v>11.9</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>11.826</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>14</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>10.6</v>
+      </c>
+      <c r="F56">
+        <v>10.6</v>
+      </c>
+      <c r="G56">
+        <v>3.68</v>
+      </c>
+      <c r="H56">
+        <v>100.66</v>
+      </c>
+      <c r="I56">
+        <v>0.2395873677459576</v>
+      </c>
+      <c r="J56">
+        <v>-0</v>
+      </c>
+      <c r="K56">
+        <v>10.6</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>10.575</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>11.5</v>
+      </c>
+      <c r="F57">
+        <v>11.6</v>
+      </c>
+      <c r="G57">
+        <v>2.39</v>
+      </c>
+      <c r="H57">
+        <v>30.29</v>
+      </c>
+      <c r="I57">
+        <v>1.799034664321065</v>
+      </c>
+      <c r="J57">
+        <v>0.87</v>
+      </c>
+      <c r="K57">
+        <v>11.5</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>11.395</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>14</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>13</v>
+      </c>
+      <c r="F58">
+        <v>13</v>
+      </c>
+      <c r="G58">
+        <v>1.86</v>
+      </c>
+      <c r="H58">
+        <v>8.5</v>
+      </c>
+      <c r="I58">
+        <v>0.7895298138843423</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>12.99999999999999</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>12.898</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>14</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>12.7</v>
+      </c>
+      <c r="F59">
+        <v>12.7</v>
+      </c>
+      <c r="G59">
+        <v>3.26</v>
+      </c>
+      <c r="H59">
+        <v>29.68</v>
+      </c>
+      <c r="I59">
+        <v>0.3001105650537491</v>
+      </c>
+      <c r="J59">
+        <v>-0</v>
+      </c>
+      <c r="K59">
+        <v>12.7</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>12.662</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>15.8</v>
+      </c>
+      <c r="F60">
+        <v>16.3</v>
+      </c>
+      <c r="G60">
+        <v>2.28</v>
+      </c>
+      <c r="H60">
+        <v>29.9</v>
+      </c>
+      <c r="I60">
+        <v>4.264392324065888</v>
+      </c>
+      <c r="J60">
+        <v>3.165</v>
+      </c>
+      <c r="K60">
+        <v>15.8</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>15.633</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>14</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
         <v>12.8</v>
       </c>
-      <c r="F11">
-        <v>0.3061487674713135</v>
-      </c>
-      <c r="G11">
+      <c r="F61">
         <v>12.8</v>
       </c>
-      <c r="H11">
-        <v>12.80000000005892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+      <c r="G61">
+        <v>3.91</v>
+      </c>
+      <c r="H61">
+        <v>35.17</v>
+      </c>
+      <c r="I61">
+        <v>0.3230475103191734</v>
+      </c>
+      <c r="J61">
+        <v>-0</v>
+      </c>
+      <c r="K61">
+        <v>12.8</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>12.759</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F62">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G62">
+        <v>3.18</v>
+      </c>
+      <c r="H62">
+        <v>4.66</v>
+      </c>
+      <c r="I62">
+        <v>-1.701054755990603E-11</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>14</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>10.6</v>
+      </c>
+      <c r="F63">
+        <v>10.8</v>
+      </c>
+      <c r="G63">
+        <v>6.08</v>
+      </c>
+      <c r="H63">
+        <v>58.99</v>
+      </c>
+      <c r="I63">
+        <v>5.040863886452843</v>
+      </c>
+      <c r="J63">
+        <v>1.887</v>
+      </c>
+      <c r="K63">
+        <v>10.6</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>10.282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>14</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>10.6</v>
+      </c>
+      <c r="F64">
+        <v>10.6</v>
+      </c>
+      <c r="G64">
+        <v>2.69</v>
+      </c>
+      <c r="H64">
+        <v>31.35</v>
+      </c>
+      <c r="I64">
+        <v>1.31151711739465</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>10.6</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>10.463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>2.55</v>
+      </c>
+      <c r="H65">
+        <v>21.26</v>
+      </c>
+      <c r="I65">
+        <v>0.3009027079640136</v>
+      </c>
+      <c r="J65">
+        <v>-0</v>
+      </c>
+      <c r="K65">
+        <v>9.999999999999996</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>9.970000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>14</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F66">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G66">
+        <v>5.43</v>
+      </c>
+      <c r="H66">
+        <v>15.55</v>
+      </c>
+      <c r="I66">
+        <v>2.965673074076266</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>8.935</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>13</v>
+      </c>
+      <c r="F67">
+        <v>13</v>
+      </c>
+      <c r="G67">
+        <v>3.41</v>
+      </c>
+      <c r="H67">
+        <v>14.47</v>
+      </c>
+      <c r="I67">
+        <v>0.1340271207159185</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>13</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>12.983</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>14</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>12.3</v>
+      </c>
+      <c r="F68">
+        <v>12.4</v>
+      </c>
+      <c r="G68">
+        <v>1.75</v>
+      </c>
+      <c r="H68">
+        <v>30.29</v>
+      </c>
+      <c r="I68">
+        <v>0.9041591319300135</v>
+      </c>
+      <c r="J68">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="K68">
+        <v>12.3</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>12.289</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>14</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>12.6</v>
+      </c>
+      <c r="F69">
+        <v>12.6</v>
+      </c>
+      <c r="G69">
+        <v>1.48</v>
+      </c>
+      <c r="H69">
+        <v>9.09</v>
+      </c>
+      <c r="I69">
+        <v>0.6211180121862419</v>
+      </c>
+      <c r="J69">
+        <v>-0</v>
+      </c>
+      <c r="K69">
+        <v>12.59999999999999</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>12.522</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>14</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>13.1</v>
+      </c>
+      <c r="F70">
+        <v>13.1</v>
+      </c>
+      <c r="G70">
+        <v>3.55</v>
+      </c>
+      <c r="H70">
+        <v>18.03</v>
+      </c>
+      <c r="I70">
+        <v>1.511278212320525</v>
+      </c>
+      <c r="J70">
+        <v>-0</v>
+      </c>
+      <c r="K70">
+        <v>13.1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>12.905</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>14</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>11</v>
+      </c>
+      <c r="F71">
+        <v>11</v>
+      </c>
+      <c r="G71">
+        <v>3.79</v>
+      </c>
+      <c r="H71">
+        <v>21.87</v>
+      </c>
+      <c r="I71">
+        <v>0.9999036423255956</v>
+      </c>
+      <c r="J71">
+        <v>-0</v>
+      </c>
+      <c r="K71">
+        <v>11</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>10.891</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>14</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F72">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G72">
+        <v>4.34</v>
+      </c>
+      <c r="H72">
+        <v>21.26</v>
+      </c>
+      <c r="I72">
+        <v>1.444444444415845</v>
+      </c>
+      <c r="J72">
+        <v>-0</v>
+      </c>
+      <c r="K72">
+        <v>8.299999999999999</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>8.182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>14</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>11.4</v>
+      </c>
+      <c r="F73">
+        <v>11.4</v>
+      </c>
+      <c r="G73">
+        <v>3.33</v>
+      </c>
+      <c r="H73">
+        <v>34.09</v>
+      </c>
+      <c r="I73">
+        <v>0.6869479564248033</v>
+      </c>
+      <c r="J73">
+        <v>-0</v>
+      </c>
+      <c r="K73">
+        <v>11.4</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>11.322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>10.2</v>
+      </c>
+      <c r="F74">
+        <v>10.5</v>
+      </c>
+      <c r="G74">
+        <v>4.26</v>
+      </c>
+      <c r="H74">
+        <v>20.96</v>
+      </c>
+      <c r="I74">
+        <v>4.544338496139705</v>
+      </c>
+      <c r="J74">
+        <v>2.941</v>
+      </c>
+      <c r="K74">
+        <v>10.2</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>10.044</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>14</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>12.5</v>
+      </c>
+      <c r="F75">
+        <v>12.5</v>
+      </c>
+      <c r="G75">
+        <v>1.43</v>
+      </c>
+      <c r="H75">
+        <v>5.59</v>
+      </c>
+      <c r="I75">
+        <v>-2.683009370229419E-11</v>
+      </c>
+      <c r="J75">
+        <v>-0</v>
+      </c>
+      <c r="K75">
+        <v>12.5</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>14</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>11.3</v>
+      </c>
+      <c r="F76">
+        <v>11.3</v>
+      </c>
+      <c r="G76">
+        <v>3.63</v>
+      </c>
+      <c r="H76">
+        <v>41.29</v>
+      </c>
+      <c r="I76">
+        <v>0.08857395923523698</v>
+      </c>
+      <c r="J76">
+        <v>-0</v>
+      </c>
+      <c r="K76">
+        <v>11.3</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>14</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>10.8</v>
+      </c>
+      <c r="F77">
+        <v>10.8</v>
+      </c>
+      <c r="G77">
+        <v>3.04</v>
+      </c>
+      <c r="H77">
+        <v>96.48999999999999</v>
+      </c>
+      <c r="I77">
+        <v>2.072641651678893</v>
+      </c>
+      <c r="J77">
+        <v>-0</v>
+      </c>
+      <c r="K77">
+        <v>10.8</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>10.581</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>14</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>13</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78">
+        <v>0.9</v>
+      </c>
+      <c r="H78">
+        <v>6.1</v>
+      </c>
+      <c r="I78">
+        <v>-1.270778354340018E-11</v>
+      </c>
+      <c r="J78">
+        <v>-0</v>
+      </c>
+      <c r="K78">
+        <v>13</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>14</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F79">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G79">
+        <v>2.64</v>
+      </c>
+      <c r="H79">
+        <v>27.96</v>
+      </c>
+      <c r="I79">
+        <v>1.185468395916289</v>
+      </c>
+      <c r="J79">
+        <v>-0</v>
+      </c>
+      <c r="K79">
+        <v>9.799999999999986</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>9.685</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>14</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F80">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="G80">
+        <v>1.21</v>
+      </c>
+      <c r="H80">
+        <v>2.65</v>
+      </c>
+      <c r="I80">
+        <v>-5.042561350555296E-12</v>
+      </c>
+      <c r="J80">
+        <v>-0</v>
+      </c>
+      <c r="K80">
+        <v>9.299999999999999</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <v>14</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="F81">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G81">
+        <v>4.39</v>
+      </c>
+      <c r="H81">
+        <v>22.54</v>
+      </c>
+      <c r="I81">
+        <v>1.021459949464771</v>
+      </c>
+      <c r="J81">
+        <v>-0</v>
+      </c>
+      <c r="K81">
+        <v>9.799999999999997</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>9.701000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>14</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>12.5</v>
+      </c>
+      <c r="F82">
+        <v>13.3</v>
+      </c>
+      <c r="G82">
+        <v>2.11</v>
+      </c>
+      <c r="H82">
+        <v>25.64</v>
+      </c>
+      <c r="I82">
+        <v>7.29152738868069</v>
+      </c>
+      <c r="J82">
+        <v>6.4</v>
+      </c>
+      <c r="K82">
+        <v>12.5</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>12.396</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>14</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>10.1</v>
+      </c>
+      <c r="F83">
+        <v>10.1</v>
+      </c>
+      <c r="G83">
+        <v>3.12</v>
+      </c>
+      <c r="H83">
+        <v>29.11</v>
+      </c>
+      <c r="I83">
+        <v>2.534003844933575</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>10.1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>14</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>12.4</v>
+      </c>
+      <c r="F84">
+        <v>12.4</v>
+      </c>
+      <c r="G84">
+        <v>2.28</v>
+      </c>
+      <c r="H84">
+        <v>36.59</v>
+      </c>
+      <c r="I84">
+        <v>1.704061036975267</v>
+      </c>
+      <c r="J84">
+        <v>-0</v>
+      </c>
+      <c r="K84">
+        <v>12.4</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>12.192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>14</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>12.2</v>
+      </c>
+      <c r="F85">
+        <v>12.4</v>
+      </c>
+      <c r="G85">
+        <v>1.99</v>
+      </c>
+      <c r="H85">
+        <v>12.78</v>
+      </c>
+      <c r="I85">
+        <v>2.248875562146467</v>
+      </c>
+      <c r="J85">
+        <v>1.639</v>
+      </c>
+      <c r="K85">
+        <v>12.2</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>12.127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>14</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>12.9</v>
+      </c>
+      <c r="F86">
+        <v>12.9</v>
+      </c>
+      <c r="G86">
+        <v>3.6</v>
+      </c>
+      <c r="H86">
+        <v>27.09</v>
+      </c>
+      <c r="I86">
+        <v>0.7812499999857175</v>
+      </c>
+      <c r="J86">
+        <v>-0</v>
+      </c>
+      <c r="K86">
+        <v>12.9</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
         <v>12.8</v>
       </c>
-      <c r="F12">
-        <v>0.3061487674713135</v>
-      </c>
-      <c r="G12">
-        <v>12.8</v>
-      </c>
-      <c r="H12">
-        <v>12.80000000005892</v>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>14</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>14.3</v>
+      </c>
+      <c r="F87">
+        <v>14.3</v>
+      </c>
+      <c r="G87">
+        <v>2.87</v>
+      </c>
+      <c r="H87">
+        <v>55.33</v>
+      </c>
+      <c r="I87">
+        <v>0.9174311926309782</v>
+      </c>
+      <c r="J87">
+        <v>-0</v>
+      </c>
+      <c r="K87">
+        <v>14.3</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <v>14</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>11.5</v>
+      </c>
+      <c r="F88">
+        <v>11.5</v>
+      </c>
+      <c r="G88">
+        <v>3.16</v>
+      </c>
+      <c r="H88">
+        <v>14.67</v>
+      </c>
+      <c r="I88">
+        <v>-8.609924367659541E-11</v>
+      </c>
+      <c r="J88">
+        <v>-0</v>
+      </c>
+      <c r="K88">
+        <v>11.5</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>14</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>12</v>
+      </c>
+      <c r="F89">
+        <v>12</v>
+      </c>
+      <c r="G89">
+        <v>2.94</v>
+      </c>
+      <c r="H89">
+        <v>27.25</v>
+      </c>
+      <c r="I89">
+        <v>1.156876397777286</v>
+      </c>
+      <c r="J89">
+        <v>-0</v>
+      </c>
+      <c r="K89">
+        <v>11.99999999999999</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>11.863</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>14</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>14.3</v>
+      </c>
+      <c r="F90">
+        <v>14.3</v>
+      </c>
+      <c r="G90">
+        <v>2.37</v>
+      </c>
+      <c r="H90">
+        <v>28.5</v>
+      </c>
+      <c r="I90">
+        <v>1.338582677142324</v>
+      </c>
+      <c r="J90">
+        <v>-0</v>
+      </c>
+      <c r="K90">
+        <v>14.29999999999998</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>14.111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <v>14</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>11.9</v>
+      </c>
+      <c r="F91">
+        <v>11.9</v>
+      </c>
+      <c r="G91">
+        <v>1.71</v>
+      </c>
+      <c r="H91">
+        <v>14.34</v>
+      </c>
+      <c r="I91">
+        <v>-5.363403465514013E-11</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>11.9</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>14</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
+        <v>11.1</v>
+      </c>
+      <c r="F92">
+        <v>11.1</v>
+      </c>
+      <c r="G92">
+        <v>2.54</v>
+      </c>
+      <c r="H92">
+        <v>16.6</v>
+      </c>
+      <c r="I92">
+        <v>1.710445937619585</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>11.1</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>10.913</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>14</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>11.4</v>
+      </c>
+      <c r="F93">
+        <v>11.4</v>
+      </c>
+      <c r="G93">
+        <v>1.29</v>
+      </c>
+      <c r="H93">
+        <v>7.75</v>
+      </c>
+      <c r="I93">
+        <v>-1.076254095589853E-10</v>
+      </c>
+      <c r="J93">
+        <v>-0</v>
+      </c>
+      <c r="K93">
+        <v>11.4</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>14</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>10.4</v>
+      </c>
+      <c r="F94">
+        <v>10.4</v>
+      </c>
+      <c r="G94">
+        <v>1.53</v>
+      </c>
+      <c r="H94">
+        <v>20.55</v>
+      </c>
+      <c r="I94">
+        <v>0.473384214041019</v>
+      </c>
+      <c r="J94">
+        <v>-0</v>
+      </c>
+      <c r="K94">
+        <v>10.4</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>10.351</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>14</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>14.1</v>
+      </c>
+      <c r="F95">
+        <v>14.1</v>
+      </c>
+      <c r="G95">
+        <v>3.03</v>
+      </c>
+      <c r="H95">
+        <v>26.87</v>
+      </c>
+      <c r="I95">
+        <v>2.206829860468701</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>14.09999999999999</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>13.796</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>14</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>13.9</v>
+      </c>
+      <c r="F96">
+        <v>13.9</v>
+      </c>
+      <c r="G96">
+        <v>2.06</v>
+      </c>
+      <c r="H96">
+        <v>22.32</v>
+      </c>
+      <c r="I96">
+        <v>0.5570426101418309</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>13.9</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>13.823</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>14</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>12.6</v>
+      </c>
+      <c r="F97">
+        <v>12.6</v>
+      </c>
+      <c r="G97">
+        <v>2.73</v>
+      </c>
+      <c r="H97">
+        <v>27.38</v>
+      </c>
+      <c r="I97">
+        <v>0.8112553529777992</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>12.6</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>12.499</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>14</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>15.4</v>
+      </c>
+      <c r="F98">
+        <v>15.5</v>
+      </c>
+      <c r="G98">
+        <v>3.25</v>
+      </c>
+      <c r="H98">
+        <v>34.4</v>
+      </c>
+      <c r="I98">
+        <v>2.975018305587022</v>
+      </c>
+      <c r="J98">
+        <v>0.649</v>
+      </c>
+      <c r="K98">
+        <v>15.4</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>15.052</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>14</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>12.2</v>
+      </c>
+      <c r="F99">
+        <v>12.2</v>
+      </c>
+      <c r="G99">
+        <v>2.98</v>
+      </c>
+      <c r="H99">
+        <v>8.73</v>
+      </c>
+      <c r="I99">
+        <v>-5.779162937209998E-08</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>12.2</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>14</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>9.4</v>
+      </c>
+      <c r="F100">
+        <v>9.4</v>
+      </c>
+      <c r="G100">
+        <v>3.86</v>
+      </c>
+      <c r="H100">
+        <v>26.25</v>
+      </c>
+      <c r="I100">
+        <v>1.194280908106689</v>
+      </c>
+      <c r="J100">
+        <v>-0</v>
+      </c>
+      <c r="K100">
+        <v>9.399999999999999</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>9.289</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>14</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>14.8</v>
+      </c>
+      <c r="F101">
+        <v>14.8</v>
+      </c>
+      <c r="G101">
+        <v>2.28</v>
+      </c>
+      <c r="H101">
+        <v>13.84</v>
+      </c>
+      <c r="I101">
+        <v>0.2031144212300788</v>
+      </c>
+      <c r="J101">
+        <v>-0</v>
+      </c>
+      <c r="K101">
+        <v>14.8</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>14.77</v>
       </c>
     </row>
   </sheetData>

--- a/Aggregated/cg.xlsx
+++ b/Aggregated/cg.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>seed</t>
+    <t>it</t>
   </si>
   <si>
     <t>I</t>
@@ -28,28 +28,16 @@
     <t>S</t>
   </si>
   <si>
-    <t>objective_value_cp</t>
+    <t>objective_value</t>
   </si>
   <si>
-    <t>objective_value_cg</t>
+    <t>time</t>
   </si>
   <si>
-    <t>time_cg</t>
+    <t>lagrange</t>
   </si>
   <si>
-    <t>time_cp</t>
-  </si>
-  <si>
-    <t>gap</t>
-  </si>
-  <si>
-    <t>mip_gap</t>
-  </si>
-  <si>
-    <t>lowerbound</t>
-  </si>
-  <si>
-    <t>optimal</t>
+    <t>lp-bound</t>
   </si>
 </sst>
 </file>
@@ -407,13 +395,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,25 +426,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>14</v>
@@ -465,36 +441,24 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>14.6</v>
+        <v>216</v>
       </c>
       <c r="F2">
-        <v>14.6</v>
+        <v>0.04503297805786133</v>
       </c>
       <c r="G2">
-        <v>3.18</v>
+        <v>206</v>
       </c>
       <c r="H2">
-        <v>108.67</v>
-      </c>
-      <c r="I2">
-        <v>1.722469403928131</v>
-      </c>
-      <c r="J2">
-        <v>-0</v>
-      </c>
-      <c r="K2">
-        <v>14.59999999999998</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>216.0000000153157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -503,36 +467,24 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>14.3</v>
+        <v>163</v>
       </c>
       <c r="F3">
-        <v>14.3</v>
+        <v>0.3210275173187256</v>
       </c>
       <c r="G3">
-        <v>2.76</v>
+        <v>155.9</v>
       </c>
       <c r="H3">
-        <v>117.92</v>
-      </c>
-      <c r="I3">
-        <v>1.067728308002784</v>
-      </c>
-      <c r="J3">
-        <v>-0</v>
-      </c>
-      <c r="K3">
-        <v>14.29999999999999</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>163.0000007563384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>14</v>
@@ -541,36 +493,24 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>10.4</v>
+        <v>121</v>
       </c>
       <c r="F4">
-        <v>10.4</v>
+        <v>0.0479285717010498</v>
       </c>
       <c r="G4">
-        <v>1.25</v>
+        <v>116.5</v>
       </c>
       <c r="H4">
-        <v>6.04</v>
-      </c>
-      <c r="I4">
-        <v>0.6776379470002823</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>10.39999999999999</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>121.0000007271481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>14</v>
@@ -579,36 +519,24 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>15.8</v>
+        <v>112</v>
       </c>
       <c r="F5">
-        <v>15.8</v>
+        <v>0.1579234600067139</v>
       </c>
       <c r="G5">
-        <v>2.77</v>
+        <v>108</v>
       </c>
       <c r="H5">
-        <v>50.24</v>
-      </c>
-      <c r="I5">
-        <v>1.256737097010823</v>
-      </c>
-      <c r="J5">
-        <v>-0</v>
-      </c>
-      <c r="K5">
-        <v>15.8</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>112.0000000058532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>14</v>
@@ -617,28 +545,588 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>13.2</v>
+        <v>99</v>
       </c>
       <c r="F6">
-        <v>13.2</v>
+        <v>0.1290185451507568</v>
       </c>
       <c r="G6">
-        <v>1.79</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H6">
-        <v>17.06</v>
-      </c>
-      <c r="I6">
-        <v>-2.349366492589145E-10</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>13.2</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
+        <v>99.00000003775082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>90.67</v>
+      </c>
+      <c r="F7">
+        <v>0.2519619464874268</v>
+      </c>
+      <c r="G7">
+        <v>88.38800000000001</v>
+      </c>
+      <c r="H7">
+        <v>90.66666668076019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>89</v>
+      </c>
+      <c r="F8">
+        <v>0.2458915710449219</v>
+      </c>
+      <c r="G8">
+        <v>87.7</v>
+      </c>
+      <c r="H8">
+        <v>89.00000000058256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>87.8</v>
+      </c>
+      <c r="F9">
+        <v>0.2263398170471191</v>
+      </c>
+      <c r="G9">
+        <v>86.8</v>
+      </c>
+      <c r="H9">
+        <v>87.8000000272162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>87.06999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.2689309120178223</v>
+      </c>
+      <c r="G10">
+        <v>85.711</v>
+      </c>
+      <c r="H10">
+        <v>87.06666669822692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>85.75</v>
+      </c>
+      <c r="F11">
+        <v>0.237924337387085</v>
+      </c>
+      <c r="G11">
+        <v>84.55200000000001</v>
+      </c>
+      <c r="H11">
+        <v>85.75185185831522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>83.61</v>
+      </c>
+      <c r="F12">
+        <v>0.2640187740325928</v>
+      </c>
+      <c r="G12">
+        <v>82.663</v>
+      </c>
+      <c r="H12">
+        <v>83.60777799286082</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>83.13</v>
+      </c>
+      <c r="F13">
+        <v>0.200624942779541</v>
+      </c>
+      <c r="G13">
+        <v>82.03</v>
+      </c>
+      <c r="H13">
+        <v>83.12962963051488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>82.78</v>
+      </c>
+      <c r="F14">
+        <v>0.2710227966308594</v>
+      </c>
+      <c r="G14">
+        <v>82.10899999999999</v>
+      </c>
+      <c r="H14">
+        <v>82.7818485195087</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>82.20999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.1490035057067871</v>
+      </c>
+      <c r="G15">
+        <v>81.307</v>
+      </c>
+      <c r="H15">
+        <v>82.20740740784532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>82.06999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.2569906711578369</v>
+      </c>
+      <c r="G16">
+        <v>81.628</v>
+      </c>
+      <c r="H16">
+        <v>82.07283950617612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>81.56</v>
+      </c>
+      <c r="F17">
+        <v>0.2759389877319336</v>
+      </c>
+      <c r="G17">
+        <v>81.175</v>
+      </c>
+      <c r="H17">
+        <v>81.55555545211213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>81.3</v>
+      </c>
+      <c r="F18">
+        <v>0.4190003871917725</v>
+      </c>
+      <c r="G18">
+        <v>81.108</v>
+      </c>
+      <c r="H18">
+        <v>81.3000000000181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>81.28</v>
+      </c>
+      <c r="F19">
+        <v>0.3289997577667236</v>
+      </c>
+      <c r="G19">
+        <v>81.179</v>
+      </c>
+      <c r="H19">
+        <v>81.27894746419227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>81.26000000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.2979307174682617</v>
+      </c>
+      <c r="G20">
+        <v>81.03700000000001</v>
+      </c>
+      <c r="H20">
+        <v>81.25555555949713</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>81.15000000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.3729681968688965</v>
+      </c>
+      <c r="G21">
+        <v>81.05200000000001</v>
+      </c>
+      <c r="H21">
+        <v>81.15185714287958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>81.09999999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.3050830364227295</v>
+      </c>
+      <c r="G22">
+        <v>81.002</v>
+      </c>
+      <c r="H22">
+        <v>81.10150008844415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>81.05</v>
+      </c>
+      <c r="F23">
+        <v>0.331920862197876</v>
+      </c>
+      <c r="G23">
+        <v>81.005</v>
+      </c>
+      <c r="H23">
+        <v>81.05185715637347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>81.02</v>
+      </c>
+      <c r="F24">
+        <v>0.2879006862640381</v>
+      </c>
+      <c r="G24">
+        <v>81.008</v>
+      </c>
+      <c r="H24">
+        <v>81.01736849851397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>81.02</v>
+      </c>
+      <c r="F25">
+        <v>0.3714125156402588</v>
+      </c>
+      <c r="G25">
+        <v>81.015</v>
+      </c>
+      <c r="H25">
+        <v>81.0150757202709</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>81.02</v>
+      </c>
+      <c r="F26">
+        <v>0.3619942665100098</v>
+      </c>
+      <c r="G26">
+        <v>81.015</v>
+      </c>
+      <c r="H26">
+        <v>81.0150754307208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>81.02</v>
+      </c>
+      <c r="F27">
+        <v>0.3449296951293945</v>
+      </c>
+      <c r="G27">
+        <v>81.015</v>
+      </c>
+      <c r="H27">
+        <v>81.01507546065409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>81.02</v>
+      </c>
+      <c r="F28">
+        <v>0.3449296951293945</v>
+      </c>
+      <c r="G28">
+        <v>81.015</v>
+      </c>
+      <c r="H28">
+        <v>81.01507546065409</v>
       </c>
     </row>
   </sheetData>
